--- a/doc/ch7/milestones.xlsx
+++ b/doc/ch7/milestones.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23206"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="0" windowWidth="25600" windowHeight="17200"/>
+    <workbookView xWindow="165" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1 - Table 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="4294967295" concurrentCalc="0"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -111,8 +111,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -138,6 +138,12 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -211,7 +217,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -578,11 +584,11 @@
           <a:pathLst/>
         </a:custGeom>
         <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="090000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          <a:srgbClr val="090000"/>
         </a:solidFill>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="400000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            <a:srgbClr val="400000"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:round/>
@@ -592,7 +598,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -622,11 +628,11 @@
           <a:pathLst/>
         </a:custGeom>
         <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="090000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          <a:srgbClr val="090000"/>
         </a:solidFill>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="400000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            <a:srgbClr val="400000"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:round/>
@@ -636,7 +642,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -657,21 +663,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IV55"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="12.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
-    <col min="5" max="5" width="40.140625" style="1" customWidth="1"/>
-    <col min="6" max="11" width="12.140625" style="1" customWidth="1"/>
-    <col min="12" max="256" width="10.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="40.125" style="1" customWidth="1"/>
+    <col min="6" max="11" width="12.125" style="1" customWidth="1"/>
+    <col min="12" max="256" width="10.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16">
+    <row r="1" spans="1:11" ht="15.75">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -694,7 +702,7 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" ht="16">
+    <row r="2" spans="1:11" ht="15.75">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -717,7 +725,7 @@
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" ht="16">
+    <row r="3" spans="1:11" ht="15.75">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -734,7 +742,7 @@
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11" ht="16">
+    <row r="4" spans="1:11" ht="15.75">
       <c r="A4" s="3"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -751,7 +759,7 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11" ht="16">
+    <row r="5" spans="1:11" ht="15.75">
       <c r="A5" s="3"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -768,7 +776,7 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" ht="16">
+    <row r="6" spans="1:11" ht="15.75">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -785,7 +793,7 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" ht="16">
+    <row r="7" spans="1:11" ht="15.75">
       <c r="A7" s="3"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -802,7 +810,7 @@
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:11" ht="16">
+    <row r="8" spans="1:11" ht="15.75">
       <c r="A8" s="3">
         <v>2</v>
       </c>
@@ -823,7 +831,7 @@
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" ht="16">
+    <row r="9" spans="1:11" ht="15.75">
       <c r="A9" s="3"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -840,7 +848,7 @@
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:11" ht="16">
+    <row r="10" spans="1:11" ht="15.75">
       <c r="A10" s="3"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -857,7 +865,7 @@
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:11" ht="16">
+    <row r="11" spans="1:11" ht="15.75">
       <c r="A11" s="3"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -874,7 +882,7 @@
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" spans="1:11" ht="16">
+    <row r="12" spans="1:11" ht="15.75">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -897,7 +905,7 @@
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
     </row>
-    <row r="13" spans="1:11" ht="16">
+    <row r="13" spans="1:11" ht="15.75">
       <c r="A13" s="3"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -914,7 +922,7 @@
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="1:11" ht="16">
+    <row r="14" spans="1:11" ht="15.75">
       <c r="A14" s="3"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -931,7 +939,7 @@
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="1:11" ht="16">
+    <row r="15" spans="1:11" ht="15.75">
       <c r="A15" s="3">
         <v>4</v>
       </c>
@@ -952,7 +960,7 @@
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
     </row>
-    <row r="16" spans="1:11" ht="16">
+    <row r="16" spans="1:11" ht="15.75">
       <c r="A16" s="3"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -965,7 +973,7 @@
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
     </row>
-    <row r="17" spans="1:11" ht="16">
+    <row r="17" spans="1:11" ht="15.75">
       <c r="A17" s="3"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -978,7 +986,7 @@
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
     </row>
-    <row r="18" spans="1:11" ht="16">
+    <row r="18" spans="1:11" ht="15.75">
       <c r="A18" s="3"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -991,7 +999,7 @@
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
     </row>
-    <row r="19" spans="1:11" ht="16">
+    <row r="19" spans="1:11" ht="15.75">
       <c r="A19" s="3"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1004,7 +1012,7 @@
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
     </row>
-    <row r="20" spans="1:11" ht="16">
+    <row r="20" spans="1:11" ht="15.75">
       <c r="A20" s="3"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -1017,7 +1025,7 @@
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
     </row>
-    <row r="21" spans="1:11" ht="16">
+    <row r="21" spans="1:11" ht="15.75">
       <c r="A21" s="3"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -1030,7 +1038,7 @@
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
     </row>
-    <row r="22" spans="1:11" ht="16">
+    <row r="22" spans="1:11" ht="15.75">
       <c r="A22" s="3"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -1043,7 +1051,7 @@
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="1:11" ht="16">
+    <row r="23" spans="1:11" ht="15.75">
       <c r="A23" s="3"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -1056,7 +1064,7 @@
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
     </row>
-    <row r="24" spans="1:11" ht="16">
+    <row r="24" spans="1:11" ht="15.75">
       <c r="A24" s="3"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -1069,7 +1077,7 @@
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
     </row>
-    <row r="25" spans="1:11" ht="16">
+    <row r="25" spans="1:11" ht="15.75">
       <c r="A25" s="3"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -1082,7 +1090,7 @@
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
     </row>
-    <row r="26" spans="1:11" ht="16">
+    <row r="26" spans="1:11" ht="15.75">
       <c r="A26" s="3"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -1095,7 +1103,7 @@
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
     </row>
-    <row r="27" spans="1:11" ht="16">
+    <row r="27" spans="1:11" ht="15.75">
       <c r="A27" s="3"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -1108,7 +1116,7 @@
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
     </row>
-    <row r="28" spans="1:11" ht="16">
+    <row r="28" spans="1:11" ht="15.75">
       <c r="A28" s="3"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -1121,7 +1129,7 @@
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
     </row>
-    <row r="29" spans="1:11" ht="16">
+    <row r="29" spans="1:11" ht="15.75">
       <c r="A29" s="3"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -1134,7 +1142,7 @@
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
     </row>
-    <row r="30" spans="1:11" ht="16">
+    <row r="30" spans="1:11" ht="15.75">
       <c r="A30" s="3"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -1147,7 +1155,7 @@
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
     </row>
-    <row r="31" spans="1:11" ht="16">
+    <row r="31" spans="1:11" ht="15.75">
       <c r="A31" s="3"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -1160,7 +1168,7 @@
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
     </row>
-    <row r="32" spans="1:11" ht="16">
+    <row r="32" spans="1:11" ht="15.75">
       <c r="A32" s="3"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -1173,7 +1181,7 @@
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
     </row>
-    <row r="33" spans="1:11" ht="16">
+    <row r="33" spans="1:11" ht="15.75">
       <c r="A33" s="3"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -1186,7 +1194,7 @@
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
     </row>
-    <row r="34" spans="1:11" ht="16">
+    <row r="34" spans="1:11" ht="15.75">
       <c r="A34" s="3"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -1199,7 +1207,7 @@
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
     </row>
-    <row r="35" spans="1:11" ht="16">
+    <row r="35" spans="1:11" ht="15.75">
       <c r="A35" s="3"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -1212,7 +1220,7 @@
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
     </row>
-    <row r="36" spans="1:11" ht="16">
+    <row r="36" spans="1:11" ht="15.75">
       <c r="A36" s="3"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -1225,7 +1233,7 @@
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
     </row>
-    <row r="37" spans="1:11" ht="16">
+    <row r="37" spans="1:11" ht="15.75">
       <c r="A37" s="3"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -1238,7 +1246,7 @@
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
     </row>
-    <row r="38" spans="1:11" ht="16">
+    <row r="38" spans="1:11" ht="15.75">
       <c r="A38" s="3"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -1251,7 +1259,7 @@
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
     </row>
-    <row r="39" spans="1:11" ht="16">
+    <row r="39" spans="1:11" ht="15.75">
       <c r="A39" s="3"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -1264,7 +1272,7 @@
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
     </row>
-    <row r="40" spans="1:11" ht="16">
+    <row r="40" spans="1:11" ht="15.75">
       <c r="A40" s="3"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -1277,7 +1285,7 @@
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
     </row>
-    <row r="41" spans="1:11" ht="16">
+    <row r="41" spans="1:11" ht="15.75">
       <c r="A41" s="3"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -1290,7 +1298,7 @@
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
     </row>
-    <row r="42" spans="1:11" ht="16">
+    <row r="42" spans="1:11" ht="15.75">
       <c r="A42" s="3"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -1303,7 +1311,7 @@
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
     </row>
-    <row r="43" spans="1:11" ht="16">
+    <row r="43" spans="1:11" ht="15.75">
       <c r="A43" s="3"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -1316,7 +1324,7 @@
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
     </row>
-    <row r="44" spans="1:11" ht="16">
+    <row r="44" spans="1:11" ht="15.75">
       <c r="A44" s="3"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -1329,7 +1337,7 @@
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
     </row>
-    <row r="45" spans="1:11" ht="16">
+    <row r="45" spans="1:11" ht="15.75">
       <c r="A45" s="3"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -1342,7 +1350,7 @@
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
     </row>
-    <row r="46" spans="1:11" ht="16">
+    <row r="46" spans="1:11" ht="15.75">
       <c r="A46" s="3"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -1355,7 +1363,7 @@
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
     </row>
-    <row r="47" spans="1:11" ht="16">
+    <row r="47" spans="1:11" ht="15.75">
       <c r="A47" s="3"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -1368,7 +1376,7 @@
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
     </row>
-    <row r="48" spans="1:11" ht="16">
+    <row r="48" spans="1:11" ht="15.75">
       <c r="A48" s="3"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -1381,7 +1389,7 @@
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
     </row>
-    <row r="49" spans="1:11" ht="16">
+    <row r="49" spans="1:11" ht="15.75">
       <c r="A49" s="3"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -1394,7 +1402,7 @@
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
     </row>
-    <row r="50" spans="1:11" ht="16">
+    <row r="50" spans="1:11" ht="15.75">
       <c r="A50" s="3"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -1407,7 +1415,7 @@
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
     </row>
-    <row r="51" spans="1:11" ht="16">
+    <row r="51" spans="1:11" ht="15.75">
       <c r="A51" s="3"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -1420,7 +1428,7 @@
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
     </row>
-    <row r="52" spans="1:11" ht="16">
+    <row r="52" spans="1:11" ht="15.75">
       <c r="A52" s="3"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -1433,7 +1441,7 @@
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
     </row>
-    <row r="53" spans="1:11" ht="16">
+    <row r="53" spans="1:11" ht="15.75">
       <c r="A53" s="3"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -1446,7 +1454,7 @@
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
     </row>
-    <row r="54" spans="1:11" ht="16">
+    <row r="54" spans="1:11" ht="15.75">
       <c r="A54" s="3"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -1459,7 +1467,7 @@
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
     </row>
-    <row r="55" spans="1:11" ht="16">
+    <row r="55" spans="1:11" ht="15.75">
       <c r="A55" s="3"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -1473,6 +1481,7 @@
       <c r="K55" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.78740149736404419" right="0.78740149736404419" top="0.78740149736404419" bottom="0.78740149736404419" header="0.39370083808898926" footer="0.39370083808898926"/>
   <pageSetup paperSize="0" orientation="landscape" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <extLst>

--- a/doc/ch7/milestones.xlsx
+++ b/doc/ch7/milestones.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
   <si>
     <t>項次</t>
   </si>
@@ -105,14 +105,62 @@
     <t>s1-release site</t>
   </si>
   <si>
-    <t>---</t>
+    <t>資料庫建置</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Rails </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="9"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>建置</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用者登入登出頁面</t>
+  </si>
+  <si>
+    <t>使用者登入</t>
+  </si>
+  <si>
+    <t>個人資訊編輯</t>
+  </si>
+  <si>
+    <r>
+      <t>code</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="9"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>產出，并通過測試</t>
+    </r>
+  </si>
+  <si>
+    <t>建置資料庫與phpmyadmin中</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>通過測試</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -141,6 +189,13 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="9"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -195,7 +250,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -214,6 +269,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -598,7 +656,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -642,7 +700,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -666,7 +724,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IV55"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
@@ -952,7 +1012,9 @@
       <c r="D15" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="4"/>
+      <c r="E15" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
@@ -964,8 +1026,12 @@
       <c r="A16" s="3"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="D16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
@@ -977,8 +1043,12 @@
       <c r="A17" s="3"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
+      <c r="D17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
@@ -990,8 +1060,12 @@
       <c r="A18" s="3"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
+      <c r="D18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
@@ -1003,8 +1077,12 @@
       <c r="A19" s="3"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
+      <c r="D19" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
